--- a/五粮液/财务指标_五粮液.xlsx
+++ b/五粮液/财务指标_五粮液.xlsx
@@ -26523,7 +26523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1097">
   <si>
     <t>总资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56746,6 +56746,534 @@
 二、公司正式员工总数为26348人
 (35.9-27.7+56.3) / 26348 人均薪酬24.5万
 2019年09月27日董事长从刘中国到曾从钦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>19.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>573.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>199.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>147</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1138.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>857.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>202.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  35.3%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>105.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  18.4%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>117.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  20.5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>148.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  25.9%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    38.6%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>31.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  15.8%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>36.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  18.5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>54.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  27.1%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>175.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  35.1%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>95.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   19.1%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>99.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   19.9%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>130.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  26%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>64.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  37.2%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>28.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  16.4%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>32.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  18.4%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>48.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  27.9%</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57094,13 +57622,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -57109,22 +57637,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -57140,6 +57656,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -57570,7 +58098,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="86">
+      <c r="A5" s="95">
         <v>2012</v>
       </c>
       <c r="B5" s="4"/>
@@ -57578,7 +58106,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="86"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="13"/>
       <c r="C6" s="52"/>
       <c r="D6" s="4"/>
@@ -57586,7 +58114,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="86">
+      <c r="A7" s="95">
         <v>2013</v>
       </c>
       <c r="B7" s="1"/>
@@ -57594,7 +58122,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="86"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="4"/>
       <c r="C8" s="37"/>
       <c r="D8" s="4"/>
@@ -57602,22 +58130,22 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A9" s="86">
+      <c r="A9" s="95">
         <v>2014</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="88"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="96"/>
     </row>
     <row r="10" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A10" s="86"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="5"/>
       <c r="C10" s="41"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="88"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="86">
+      <c r="A11" s="95">
         <v>2015</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -57626,132 +58154,116 @@
       <c r="C11" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="87" t="s">
+      <c r="D11" s="83"/>
+      <c r="E11" s="93" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="147" customHeight="1">
-      <c r="A12" s="86"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="91">
+      <c r="A13" s="86">
         <v>2016</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="87" t="s">
         <v>458</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="93" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="170.25" customHeight="1">
-      <c r="A14" s="91"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="90"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="94"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="91">
+      <c r="A15" s="86">
         <v>2017</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="87" t="s">
         <v>458</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="93" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="171" customHeight="1">
-      <c r="A16" s="91"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="90"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="94"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A17" s="91">
+      <c r="A17" s="86">
         <v>2018</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="87" t="s">
         <v>898</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="91" t="s">
         <v>899</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="93" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="219" customHeight="1">
-      <c r="A18" s="91"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="90"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="91">
+      <c r="A19" s="86">
         <v>2019</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="87" t="s">
         <v>898</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="89" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="138.75" customHeight="1">
-      <c r="A20" s="91"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="94"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="E11:E12"/>
@@ -57761,6 +58273,22 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57856,18 +58384,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="4" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
@@ -58037,8 +58565,119 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="79">
+      <c r="A12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="79">
         <v>2.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G17">
+        <v>0.24940000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -58887,13 +59526,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -59380,6 +60019,11 @@
       </c>
       <c r="AK11" s="2">
         <v>0.49080000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="AJ12" t="s">
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -60060,37 +60704,37 @@
         <v>188</v>
       </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
       <c r="S1" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="T1" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81" t="s">
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
       <c r="AB1" s="19" t="s">
         <v>156</v>
       </c>
       <c r="AC1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="82" t="s">
+      <c r="AD1" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="AE1" s="82"/>
+      <c r="AE1" s="81"/>
       <c r="AF1" s="12" t="s">
         <v>160</v>
       </c>
@@ -60100,18 +60744,18 @@
       <c r="AH1" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="82" t="s">
+      <c r="AI1" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="AJ1" s="82"/>
+      <c r="AJ1" s="81"/>
       <c r="AK1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="82" t="s">
+      <c r="AL1" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
       <c r="AO1" s="12" t="s">
         <v>88</v>
       </c>
@@ -60121,10 +60765,10 @@
       <c r="AQ1" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="AR1" s="82" t="s">
+      <c r="AR1" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="AS1" s="82"/>
+      <c r="AS1" s="81"/>
       <c r="AT1" s="23" t="s">
         <v>178</v>
       </c>
@@ -60154,56 +60798,56 @@
         <v>188</v>
       </c>
       <c r="BD1" s="24"/>
-      <c r="BE1" s="81" t="s">
+      <c r="BE1" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
       <c r="BH1" s="24" t="s">
         <v>190</v>
       </c>
       <c r="BI1" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="BJ1" s="81" t="s">
+      <c r="BJ1" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81" t="s">
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="83"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="BQ1" s="81"/>
+      <c r="BQ1" s="83"/>
       <c r="BR1" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="BS1" s="81" t="s">
+      <c r="BS1" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BW1" s="81" t="s">
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BW1" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="BX1" s="81"/>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="81"/>
-      <c r="CA1" s="81"/>
-      <c r="CB1" s="81" t="s">
+      <c r="BX1" s="83"/>
+      <c r="BY1" s="83"/>
+      <c r="BZ1" s="83"/>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="CC1" s="81"/>
-      <c r="CD1" s="81"/>
-      <c r="CE1" s="81"/>
-      <c r="CF1" s="81" t="s">
+      <c r="CC1" s="83"/>
+      <c r="CD1" s="83"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="CG1" s="81"/>
-      <c r="CH1" s="81"/>
-      <c r="CI1" s="81"/>
+      <c r="CG1" s="83"/>
+      <c r="CH1" s="83"/>
+      <c r="CI1" s="83"/>
       <c r="CJ1" s="24" t="s">
         <v>230</v>
       </c>
@@ -60231,7 +60875,7 @@
       </c>
     </row>
     <row r="2" spans="1:96" ht="108.75">
-      <c r="A2" s="83">
+      <c r="A2" s="82">
         <v>2012</v>
       </c>
       <c r="B2" s="16"/>
@@ -60423,7 +61067,7 @@
       <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:96">
-      <c r="A3" s="83"/>
+      <c r="A3" s="82"/>
       <c r="E3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -62027,6 +62671,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="CB1:CE1"/>
+    <mergeCell ref="CF1:CI1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AR1:AS1"/>
@@ -62035,13 +62686,6 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="BW1:CA1"/>
-    <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="CF1:CI1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BQ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62242,15 +62886,15 @@
       <c r="X1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="81" t="s">
+      <c r="Y1" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
     </row>
     <row r="2" spans="1:31" ht="41.25" customHeight="1">
       <c r="C2" s="1" t="s">
@@ -62286,10 +62930,10 @@
       <c r="O2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="82"/>
+      <c r="Q2" s="81"/>
       <c r="R2" s="1" t="s">
         <v>119</v>
       </c>
